--- a/AI/solution_annxor.xlsx
+++ b/AI/solution_annxor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="work" sheetId="1" r:id="rId1"/>
     <sheet name="answer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -914,45 +914,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="4.25" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="4.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="9" max="9" width="4.875" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="12" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="4.75" customWidth="1"/>
-    <col min="16" max="16" width="3.875" customWidth="1"/>
-    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.77734375" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="3.75" customWidth="1"/>
-    <col min="20" max="20" width="4.5" customWidth="1"/>
-    <col min="21" max="21" width="4.875" customWidth="1"/>
-    <col min="22" max="22" width="5.25" customWidth="1"/>
-    <col min="23" max="23" width="4.125" customWidth="1"/>
-    <col min="24" max="24" width="4.75" customWidth="1"/>
-    <col min="25" max="26" width="5.5" customWidth="1"/>
-    <col min="27" max="27" width="5.375" customWidth="1"/>
-    <col min="28" max="28" width="6.5" customWidth="1"/>
+    <col min="19" max="19" width="3.77734375" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" customWidth="1"/>
+    <col min="22" max="22" width="5.21875" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" customWidth="1"/>
+    <col min="24" max="24" width="4.77734375" customWidth="1"/>
+    <col min="25" max="26" width="5.44140625" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <f>A$2</f>
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <f>A$2</f>
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <f>A$2</f>
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>15</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>6</v>
       </c>
@@ -1540,45 +1540,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0E69D4-4E78-4AA5-854F-C181FE5D72BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="4.25" customWidth="1"/>
-    <col min="5" max="5" width="5.25" customWidth="1"/>
-    <col min="6" max="6" width="4.125" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="9" max="9" width="4.875" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1"/>
-    <col min="12" max="12" width="4.75" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="4.75" customWidth="1"/>
-    <col min="16" max="16" width="3.875" customWidth="1"/>
-    <col min="17" max="17" width="4.5" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="3.75" customWidth="1"/>
-    <col min="20" max="20" width="4.5" customWidth="1"/>
-    <col min="21" max="21" width="4.875" customWidth="1"/>
-    <col min="22" max="22" width="5.25" customWidth="1"/>
-    <col min="23" max="23" width="4.125" customWidth="1"/>
-    <col min="24" max="25" width="5.875" customWidth="1"/>
-    <col min="26" max="26" width="5.75" customWidth="1"/>
-    <col min="27" max="27" width="5.875" customWidth="1"/>
-    <col min="28" max="28" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="4.88671875" customWidth="1"/>
+    <col min="22" max="22" width="5.21875" customWidth="1"/>
+    <col min="23" max="23" width="4.109375" customWidth="1"/>
+    <col min="24" max="25" width="5.88671875" customWidth="1"/>
+    <col min="26" max="26" width="5.77734375" customWidth="1"/>
+    <col min="27" max="27" width="5.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42">
         <v>1</v>
       </c>
@@ -1675,48 +1675,48 @@
         <v>0</v>
       </c>
       <c r="D2" s="31">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="14">
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="F2" s="15">
         <v>-1</v>
       </c>
       <c r="G2" s="16">
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
       <c r="H2" s="13">
-        <v>-10</v>
+        <v>-10000000</v>
       </c>
       <c r="I2" s="14">
-        <v>-20</v>
+        <v>-2000000</v>
       </c>
       <c r="J2" s="15">
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="K2" s="16">
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="L2" s="13">
-        <v>-10</v>
+        <v>-1000000</v>
       </c>
       <c r="M2" s="14">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="N2" s="15">
-        <v>-20</v>
+        <v>-200000</v>
       </c>
       <c r="O2" s="45">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="P2" s="32">
         <f>$A2*D2+$B2*H2+$C2*L2</f>
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="Q2" s="8">
         <f>$A2*E2+$B2*I2+$C2*M2</f>
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="R2" s="18">
         <f>$A2*F2+$B2*J2+$C2*N2</f>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="S2" s="30">
         <f>$A2*G2+$B2*K2+$C2*O2</f>
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
       <c r="T2" s="42">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -1767,11 +1767,11 @@
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:O5" si="0">D$2</f>
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
@@ -1779,54 +1779,54 @@
       </c>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <f>H$2</f>
+        <v>-10000000</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-2000000</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="K3" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <f>L$2</f>
+        <v>-1000000</v>
       </c>
       <c r="M3" s="8">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-200000</v>
       </c>
       <c r="O3" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="P3" s="32">
         <f t="shared" ref="P3:S5" si="1">$A3*D3+$B3*H3+$C3*L3</f>
-        <v>0</v>
+        <v>-990000</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="1"/>
-        <v>20.2</v>
+        <v>9900</v>
       </c>
       <c r="R3" s="18">
         <f t="shared" si="1"/>
-        <v>-21</v>
+        <v>-200001</v>
       </c>
       <c r="S3" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-980000</v>
       </c>
       <c r="T3" s="37">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -1869,11 +1869,11 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
@@ -1881,51 +1881,51 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-10000000</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-2000000</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>J$2</f>
+        <v>100000</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-1000000</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-200000</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="P4" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9990000</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="1"/>
-        <v>-19.8</v>
+        <v>-2000100</v>
       </c>
       <c r="R4" s="18">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>99999</v>
       </c>
       <c r="S4" s="30">
         <f t="shared" si="1"/>
@@ -1960,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>1</v>
       </c>
@@ -1972,67 +1972,67 @@
       </c>
       <c r="D5" s="46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="20">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="F5" s="28">
-        <f t="shared" si="0"/>
+        <f>F$2</f>
         <v>-1</v>
       </c>
       <c r="G5" s="47">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-10000000</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="0"/>
-        <v>-20</v>
+        <f>I$2</f>
+        <v>-2000000</v>
       </c>
       <c r="J5" s="28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="K5" s="47">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1000000</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-1000000</v>
       </c>
       <c r="M5" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-200000</v>
       </c>
       <c r="O5" s="47">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-10990000</v>
       </c>
       <c r="Q5" s="34">
         <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <v>-1990100</v>
       </c>
       <c r="R5" s="35">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-100001</v>
       </c>
       <c r="S5" s="36">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="T5" s="39">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>15</v>
       </c>
@@ -2077,17 +2077,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="21">
         <f>D2</f>
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="19">
         <f>E2</f>
-        <v>0.2</v>
+        <v>-100</v>
       </c>
       <c r="H8" s="27">
         <f>F2</f>
@@ -2095,52 +2095,52 @@
       </c>
       <c r="I8" s="22">
         <f>G2</f>
-        <v>-20</v>
+        <v>-1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="23">
         <f>H2</f>
-        <v>-10</v>
+        <v>-10000000</v>
       </c>
       <c r="G9" s="3">
         <f>I2</f>
-        <v>-20</v>
+        <v>-2000000</v>
       </c>
       <c r="H9" s="4">
         <f>J2</f>
-        <v>20</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="24">
         <f>K2</f>
-        <v>20</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="25">
         <f>L2</f>
-        <v>-10</v>
+        <v>-1000000</v>
       </c>
       <c r="G10" s="20">
         <f>M2</f>
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="28">
         <f>N2</f>
-        <v>-20</v>
+        <v>-200000</v>
       </c>
       <c r="I10" s="26">
         <f>O2</f>
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>6</v>
       </c>
